--- a/exl.xlsx
+++ b/exl.xlsx
@@ -12,21 +12,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>1. cell</t>
-  </si>
-  <si>
-    <t>karthik</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>bonmots@outlook.com</t>
+  </si>
+  <si>
+    <t>seano@optonline.net</t>
+  </si>
+  <si>
+    <t>aardo@optonline.net</t>
+  </si>
+  <si>
+    <t>kassiesa@aol.com</t>
+  </si>
+  <si>
+    <t>mmccool@gmail.com</t>
+  </si>
+  <si>
+    <t>mleary@att.net</t>
+  </si>
+  <si>
+    <t>jesse@comcast.net</t>
+  </si>
+  <si>
+    <t>benits@optonline.net</t>
+  </si>
+  <si>
+    <t>jbearp@optonline.net</t>
+  </si>
+  <si>
+    <t>slanglois@live.com</t>
+  </si>
+  <si>
+    <t>gomor@me.com</t>
+  </si>
+  <si>
+    <t>pgolle@me.com</t>
+  </si>
+  <si>
+    <t>jbarta@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>solomon@att.net</t>
+  </si>
+  <si>
+    <t>lcheng@aol.com</t>
+  </si>
+  <si>
+    <t>panolex@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisj@me.com</t>
+  </si>
+  <si>
+    <t>wenzlaff@mac.com</t>
+  </si>
+  <si>
+    <t>lukka@icloud.com</t>
+  </si>
+  <si>
+    <t>djpig@mac.com</t>
+  </si>
+  <si>
+    <t>maradine@att.net</t>
+  </si>
+  <si>
+    <t>keutzer@me.com</t>
+  </si>
+  <si>
+    <t>oechslin@me.com</t>
+  </si>
+  <si>
+    <t>koudas@live.com</t>
+  </si>
+  <si>
+    <t>dwsauder@me.com</t>
+  </si>
+  <si>
+    <t>uraeus@aol.com</t>
+  </si>
+  <si>
+    <t>nasor@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>dwheeler@yahoo.ca</t>
+  </si>
+  <si>
+    <t>ccohen@msn.com</t>
+  </si>
+  <si>
+    <t>violinhi@gmail.com</t>
+  </si>
+  <si>
+    <t>godeke@yahoo.ca</t>
+  </si>
+  <si>
+    <t>jbearp@outlook.com</t>
+  </si>
+  <si>
+    <t>ylchang@yahoo.com</t>
+  </si>
+  <si>
+    <t>cgarcia@yahoo.ca</t>
+  </si>
+  <si>
+    <t>marcs@mac.com</t>
+  </si>
+  <si>
+    <t>brickbat@mac.com</t>
+  </si>
+  <si>
+    <t>nelson@optonline.net</t>
+  </si>
+  <si>
+    <t>frikazoyd@yahoo.com</t>
+  </si>
+  <si>
+    <t>fatelk@live.com</t>
+  </si>
+  <si>
+    <t>themer@aol.com</t>
+  </si>
+  <si>
+    <t>zeller@yahoo.com</t>
+  </si>
+  <si>
+    <t>yfreund@comcast.net</t>
+  </si>
+  <si>
+    <t>vmalik@hotmail.com</t>
+  </si>
+  <si>
+    <t>frode@att.net</t>
+  </si>
+  <si>
+    <t>emcleod@msn.com</t>
+  </si>
+  <si>
+    <t>arebenti@hotmail.com</t>
+  </si>
+  <si>
+    <t>techie@comcast.net</t>
+  </si>
+  <si>
+    <t>biglou@comcast.net</t>
+  </si>
+  <si>
+    <t>ylchang@optonline.net</t>
+  </si>
+  <si>
+    <t>martyloo@icloud.com</t>
+  </si>
+  <si>
+    <t>matthijs@mac.com</t>
+  </si>
+  <si>
+    <t>dkrishna@verizon.net</t>
+  </si>
+  <si>
+    <t>kenja@verizon.net</t>
+  </si>
+  <si>
+    <t>monopole@me.com</t>
+  </si>
+  <si>
+    <t>blixem@verizon.net</t>
+  </si>
+  <si>
+    <t>vlefevre@mac.com</t>
+  </si>
+  <si>
+    <t>fbriere@optonline.net</t>
+  </si>
+  <si>
+    <t>eminence@optonline.net</t>
+  </si>
+  <si>
+    <t>madanm@msn.com</t>
+  </si>
+  <si>
+    <t>gospodin@yahoo.com</t>
+  </si>
+  <si>
+    <t>lushe@me.com</t>
+  </si>
+  <si>
+    <t>dialworld@aol.com</t>
+  </si>
+  <si>
+    <t>glenz@verizon.net</t>
+  </si>
+  <si>
+    <t>rsteiner@me.com</t>
+  </si>
+  <si>
+    <t>nweaver@outlook.com</t>
+  </si>
+  <si>
+    <t>amaranth@yahoo.ca</t>
+  </si>
+  <si>
+    <t>loscar@yahoo.ca</t>
+  </si>
+  <si>
+    <t>staikos@msn.com</t>
+  </si>
+  <si>
+    <t>uraeus@yahoo.ca</t>
+  </si>
+  <si>
+    <t>eidac@verizon.net</t>
+  </si>
+  <si>
+    <t>mchugh@comcast.net</t>
+  </si>
+  <si>
+    <t>dkeeler@hotmail.com</t>
+  </si>
+  <si>
+    <t>andrei@live.com</t>
+  </si>
+  <si>
+    <t>tkrotchko@msn.com</t>
+  </si>
+  <si>
+    <t>thaljef@aol.com</t>
+  </si>
+  <si>
+    <t>bwcarty@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>hstiles@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>teverett@att.net</t>
+  </si>
+  <si>
+    <t>webteam@msn.com</t>
+  </si>
+  <si>
+    <t>lydia@yahoo.ca</t>
+  </si>
+  <si>
+    <t>thomasj@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>parrt@msn.com</t>
+  </si>
+  <si>
+    <t>rsmartin@yahoo.com</t>
+  </si>
+  <si>
+    <t>dbrobins@mac.com</t>
+  </si>
+  <si>
+    <t>ahmad@hotmail.com</t>
+  </si>
+  <si>
+    <t>epeeist@gmail.com</t>
+  </si>
+  <si>
+    <t>wildfire@optonline.net</t>
+  </si>
+  <si>
+    <t>smpeters@live.com</t>
+  </si>
+  <si>
+    <t>maradine@yahoo.ca</t>
+  </si>
+  <si>
+    <t>johnbob@aol.com</t>
+  </si>
+  <si>
+    <t>nweaver@yahoo.ca</t>
+  </si>
+  <si>
+    <t>leviathan@att.net</t>
+  </si>
+  <si>
+    <t>stern@outlook.com</t>
+  </si>
+  <si>
+    <t>richard@comcast.net</t>
+  </si>
+  <si>
+    <t>nimaclea@comcast.net</t>
+  </si>
+  <si>
+    <t>louise@mac.com</t>
+  </si>
+  <si>
+    <t>pemungkah@mac.com</t>
+  </si>
+  <si>
+    <t>andrei@att.net</t>
+  </si>
+  <si>
+    <t>yenya@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>treit@yahoo.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -56,33 +348,521 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="7.25390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>43268.434355335645</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
